--- a/classfiers/bottleneck/MLP/nearmiss/bottleneck-mlp-nearmiss-results.xlsx
+++ b/classfiers/bottleneck/MLP/nearmiss/bottleneck-mlp-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7580071174377224</v>
+        <v>0.7517482517482518</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9906976744186047</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8588709677419354</v>
+        <v>0.8582834331337326</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9064985872636384</v>
+        <v>0.9500486749594375</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.852589641434263</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9204301075268817</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9977613562269071</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9184549356223176</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9574944071588367</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9998034762861385</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9861751152073732</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9930394431554525</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9998471482225522</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -546,10 +546,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0.9953488372093023</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0.9976689976689977</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9030453619403354</v>
+        <v>0.9503496503496504</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9981395348837209</v>
+        <v>0.9990697674418605</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9459669851166213</v>
+        <v>0.9711904861605462</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9807821135998471</v>
+        <v>0.9900097349918875</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/bottleneck/MLP/nearmiss/bottleneck-mlp-nearmiss-results.xlsx
+++ b/classfiers/bottleneck/MLP/nearmiss/bottleneck-mlp-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7517482517482518</v>
+        <v>0.75</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8582834331337326</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9500486749594375</v>
+        <v>0.921882546121897</v>
       </c>
     </row>
     <row r="3">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.9790575916230366</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.9211822660098522</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0.9492385786802031</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0.9969666820354777</v>
       </c>
     </row>
     <row r="5">
@@ -527,13 +527,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0.9211822660098522</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0.9589743589743589</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.9976704118032469</v>
       </c>
     </row>
     <row r="6">
@@ -546,10 +546,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9953488372093023</v>
+        <v>0.9458128078817734</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9976689976689977</v>
+        <v>0.9721518987341772</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9503496503496504</v>
+        <v>0.9458115183246074</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9990697674418605</v>
+        <v>0.9576354679802955</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9711904861605462</v>
+        <v>0.9475015387063193</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9900097349918875</v>
+        <v>0.9833039279921243</v>
       </c>
     </row>
   </sheetData>
